--- a/house.xlsx
+++ b/house.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work-in-progress\kelston-coding\adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996063AD-697D-46D2-A0DE-4DC517079B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B91EC9-CD2B-4237-BC6A-94F705397BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Kitchen</t>
   </si>
@@ -125,15 +125,9 @@
     <t>Blue Ball</t>
   </si>
   <si>
-    <t>Red Ball</t>
-  </si>
-  <si>
     <t>A large blue ball</t>
   </si>
   <si>
-    <t>A small red ball</t>
-  </si>
-  <si>
     <t>On the ground</t>
   </si>
   <si>
@@ -150,6 +144,18 @@
   </si>
   <si>
     <t>InitialSublocation</t>
+  </si>
+  <si>
+    <t>A yellow ball</t>
+  </si>
+  <si>
+    <t>Yellow Ball</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>IsInitial</t>
   </si>
 </sst>
 </file>
@@ -552,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E05D79-4196-4A66-A73D-995D6A289BA8}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,15 +570,18 @@
     <col min="2" max="2" width="80.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -580,7 +589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -588,7 +597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -596,7 +605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -604,15 +613,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -620,7 +632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -628,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -636,7 +648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -644,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -652,7 +664,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -660,7 +672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -677,9 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CBE6F7-8E16-4651-B353-26513C8E6461}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,10 +708,10 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -718,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -746,30 +756,30 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/house.xlsx
+++ b/house.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work-in-progress\kelston-coding\adventure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B91EC9-CD2B-4237-BC6A-94F705397BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA25765-0278-4D0E-9D42-17D981F6A5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CBE6F7-8E16-4651-B353-26513C8E6461}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
